--- a/icafsg功能列表V1.0.xlsx
+++ b/icafsg功能列表V1.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="88">
   <si>
     <t>模块</t>
   </si>
@@ -164,10 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.文章管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.添加
 2.编辑
 3.删除
@@ -231,10 +227,6 @@
   <si>
     <t>1. 列表页
 2. 详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.报名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -284,10 +276,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7.报名资料下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>就是网站的导航
 栏目管理改名为“网站导航”</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,11 +287,6 @@
   <si>
     <t>控制器：\application\controllers\admin\mediareport.php
 模板：\application\views\mediareport.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表页：\data\template\default\mediareport_list.php
-详细页：\data\template\default\article_detail.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -363,12 +346,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文章模型改名“文章管理”
-只对超级管理员开放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.媒体报道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表页：\data\template\default\mediareport_list.php
+详细页：\data\template\default\mediareport_detail.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.艺术节相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.报名资料下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.文章模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改名“新闻中心”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. 新闻中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表页：\data\template\default\article_list.php
+详细页：\data\template\default\article_detail.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.报名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.艺术节相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表页：\data\template\default\interfix_list.php
+详细页：\data\template\default\interfix_detail.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制器：application\controllers\admin\interfix.php
+视图：application\views\interfix.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -596,6 +622,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -936,11 +968,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DS31"/>
+  <dimension ref="A1:DS34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1091,10 +1123,10 @@
       <c r="DS1" s="5"/>
     </row>
     <row r="2" spans="1:123" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1104,8 +1136,8 @@
       <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>55</v>
+      <c r="F2" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1226,14 +1258,14 @@
       <c r="DS2" s="5"/>
     </row>
     <row r="3" spans="1:123" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="20"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -1353,14 +1385,14 @@
       <c r="DS3" s="5"/>
     </row>
     <row r="4" spans="1:123" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="27"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="21"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -1480,21 +1512,21 @@
       <c r="DS4" s="5"/>
     </row>
     <row r="5" spans="1:123" s="6" customFormat="1" ht="66" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1615,19 +1647,19 @@
       <c r="DS5" s="5"/>
     </row>
     <row r="6" spans="1:123" s="6" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1748,19 +1780,19 @@
       <c r="DS6" s="5"/>
     </row>
     <row r="7" spans="1:123" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A7" s="27"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1881,8 +1913,8 @@
       <c r="DS7" s="5"/>
     </row>
     <row r="8" spans="1:123" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="27"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="9" t="s">
         <v>32</v>
       </c>
@@ -1890,10 +1922,10 @@
         <v>33</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -2014,8 +2046,8 @@
       <c r="DS8" s="5"/>
     </row>
     <row r="9" spans="1:123" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A9" s="27"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="9" t="s">
         <v>34</v>
       </c>
@@ -2023,10 +2055,10 @@
         <v>31</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -2147,8 +2179,8 @@
       <c r="DS9" s="5"/>
     </row>
     <row r="10" spans="1:123" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A10" s="27"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="9" t="s">
         <v>35</v>
       </c>
@@ -2156,10 +2188,10 @@
         <v>31</v>
       </c>
       <c r="E10" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>75</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -2279,18 +2311,18 @@
       <c r="DR10" s="5"/>
       <c r="DS10" s="5"/>
     </row>
-    <row r="11" spans="1:123" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>74</v>
+    <row r="11" spans="1:123" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A11" s="29"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -2410,20 +2442,18 @@
       <c r="DR11" s="5"/>
       <c r="DS11" s="5"/>
     </row>
-    <row r="12" spans="1:123" s="6" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="27"/>
-      <c r="B12" s="19" t="s">
-        <v>11</v>
-      </c>
+    <row r="12" spans="1:123" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="29"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="17" t="s">
-        <v>53</v>
+        <v>79</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2543,18 +2573,20 @@
       <c r="DR12" s="5"/>
       <c r="DS12" s="5"/>
     </row>
-    <row r="13" spans="1:123" s="6" customFormat="1" ht="66" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
-      <c r="B13" s="20"/>
+    <row r="13" spans="1:123" s="6" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="29"/>
+      <c r="B13" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2674,17 +2706,17 @@
       <c r="DR13" s="5"/>
       <c r="DS13" s="5"/>
     </row>
-    <row r="14" spans="1:123" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="27"/>
-      <c r="B14" s="19" t="s">
-        <v>12</v>
-      </c>
+    <row r="14" spans="1:123" s="6" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="A14" s="29"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="17" t="s">
         <v>53</v>
       </c>
       <c r="G14" s="5"/>
@@ -2805,17 +2837,19 @@
       <c r="DR14" s="5"/>
       <c r="DS14" s="5"/>
     </row>
-    <row r="15" spans="1:123" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
-      <c r="B15" s="20"/>
+    <row r="15" spans="1:123" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="29"/>
+      <c r="B15" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="C15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="24"/>
+      <c r="F15" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -2934,15 +2968,17 @@
       <c r="DR15" s="5"/>
       <c r="DS15" s="5"/>
     </row>
-    <row r="16" spans="1:123" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
-      <c r="B16" s="20"/>
+    <row r="16" spans="1:123" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A16" s="29"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="24"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -3062,14 +3098,14 @@
       <c r="DS16" s="5"/>
     </row>
     <row r="17" spans="1:123" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="24"/>
+      <c r="F17" s="26"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -3188,17 +3224,15 @@
       <c r="DR17" s="5"/>
       <c r="DS17" s="5"/>
     </row>
-    <row r="18" spans="1:123" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A18" s="27"/>
-      <c r="B18" s="20"/>
+    <row r="18" spans="1:123" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="29"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="24"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -3317,15 +3351,17 @@
       <c r="DR18" s="5"/>
       <c r="DS18" s="5"/>
     </row>
-    <row r="19" spans="1:123" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="27"/>
-      <c r="B19" s="20"/>
+    <row r="19" spans="1:123" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A19" s="29"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="24"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -3445,16 +3481,14 @@
       <c r="DS19" s="5"/>
     </row>
     <row r="20" spans="1:123" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="27"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="25"/>
+      <c r="F20" s="26"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -3573,21 +3607,17 @@
       <c r="DR20" s="5"/>
       <c r="DS20" s="5"/>
     </row>
-    <row r="21" spans="1:123" s="6" customFormat="1" ht="99" x14ac:dyDescent="0.15">
-      <c r="A21" s="27"/>
-      <c r="B21" s="10" t="s">
-        <v>13</v>
-      </c>
+    <row r="21" spans="1:123" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="29"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="7" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="F21" s="27"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -3706,18 +3736,20 @@
       <c r="DR21" s="5"/>
       <c r="DS21" s="5"/>
     </row>
-    <row r="22" spans="1:123" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="26" t="s">
-        <v>8</v>
-      </c>
+    <row r="22" spans="1:123" s="6" customFormat="1" ht="99" x14ac:dyDescent="0.15">
+      <c r="A22" s="29"/>
       <c r="B22" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="15" t="s">
-        <v>56</v>
+      <c r="F22" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -3837,18 +3869,18 @@
       <c r="DR22" s="5"/>
       <c r="DS22" s="5"/>
     </row>
-    <row r="23" spans="1:123" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A23" s="27"/>
+    <row r="23" spans="1:123" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="28" t="s">
+        <v>8</v>
+      </c>
       <c r="B23" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -3969,19 +4001,17 @@
       <c r="DS23" s="5"/>
     </row>
     <row r="24" spans="1:123" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A24" s="27"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -4101,20 +4131,20 @@
       <c r="DR24" s="5"/>
       <c r="DS24" s="5"/>
     </row>
-    <row r="25" spans="1:123" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="27"/>
+    <row r="25" spans="1:123" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A25" s="29"/>
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -4234,20 +4264,20 @@
       <c r="DR25" s="5"/>
       <c r="DS25" s="5"/>
     </row>
-    <row r="26" spans="1:123" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="27"/>
+    <row r="26" spans="1:123" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="29"/>
       <c r="B26" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>56</v>
+        <v>69</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -4368,17 +4398,19 @@
       <c r="DS26" s="5"/>
     </row>
     <row r="27" spans="1:123" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="27"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -4498,20 +4530,18 @@
       <c r="DR27" s="5"/>
       <c r="DS27" s="5"/>
     </row>
-    <row r="28" spans="1:123" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A28" s="27"/>
+    <row r="28" spans="1:123" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="29"/>
       <c r="B28" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -4632,19 +4662,19 @@
       <c r="DS28" s="5"/>
     </row>
     <row r="29" spans="1:123" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A29" s="27"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>57</v>
+        <v>64</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -4764,18 +4794,20 @@
       <c r="DR29" s="5"/>
       <c r="DS29" s="5"/>
     </row>
-    <row r="30" spans="1:123" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="27"/>
+    <row r="30" spans="1:123" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A30" s="29"/>
       <c r="B30" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>56</v>
+        <v>77</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -4895,16 +4927,18 @@
       <c r="DR30" s="5"/>
       <c r="DS30" s="5"/>
     </row>
-    <row r="31" spans="1:123" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
-      <c r="B31" s="4" t="s">
-        <v>52</v>
+    <row r="31" spans="1:123" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="29"/>
+      <c r="B31" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="11" t="s">
-        <v>57</v>
+      <c r="E31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -5024,16 +5058,407 @@
       <c r="DR31" s="5"/>
       <c r="DS31" s="5"/>
     </row>
+    <row r="32" spans="1:123" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A32" s="29"/>
+      <c r="B32" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="5"/>
+      <c r="AQ32" s="5"/>
+      <c r="AR32" s="5"/>
+      <c r="AS32" s="5"/>
+      <c r="AT32" s="5"/>
+      <c r="AU32" s="5"/>
+      <c r="AV32" s="5"/>
+      <c r="AW32" s="5"/>
+      <c r="AX32" s="5"/>
+      <c r="AY32" s="5"/>
+      <c r="AZ32" s="5"/>
+      <c r="BA32" s="5"/>
+      <c r="BB32" s="5"/>
+      <c r="BC32" s="5"/>
+      <c r="BD32" s="5"/>
+      <c r="BE32" s="5"/>
+      <c r="BF32" s="5"/>
+      <c r="BG32" s="5"/>
+      <c r="BH32" s="5"/>
+      <c r="BI32" s="5"/>
+      <c r="BJ32" s="5"/>
+      <c r="BK32" s="5"/>
+      <c r="BL32" s="5"/>
+      <c r="BM32" s="5"/>
+      <c r="BN32" s="5"/>
+      <c r="BO32" s="5"/>
+      <c r="BP32" s="5"/>
+      <c r="BQ32" s="5"/>
+      <c r="BR32" s="5"/>
+      <c r="BS32" s="5"/>
+      <c r="BT32" s="5"/>
+      <c r="BU32" s="5"/>
+      <c r="BV32" s="5"/>
+      <c r="BW32" s="5"/>
+      <c r="BX32" s="5"/>
+      <c r="BY32" s="5"/>
+      <c r="BZ32" s="5"/>
+      <c r="CA32" s="5"/>
+      <c r="CB32" s="5"/>
+      <c r="CC32" s="5"/>
+      <c r="CD32" s="5"/>
+      <c r="CE32" s="5"/>
+      <c r="CF32" s="5"/>
+      <c r="CG32" s="5"/>
+      <c r="CH32" s="5"/>
+      <c r="CI32" s="5"/>
+      <c r="CJ32" s="5"/>
+      <c r="CK32" s="5"/>
+      <c r="CL32" s="5"/>
+      <c r="CM32" s="5"/>
+      <c r="CN32" s="5"/>
+      <c r="CO32" s="5"/>
+      <c r="CP32" s="5"/>
+      <c r="CQ32" s="5"/>
+      <c r="CR32" s="5"/>
+      <c r="CS32" s="5"/>
+      <c r="CT32" s="5"/>
+      <c r="CU32" s="5"/>
+      <c r="CV32" s="5"/>
+      <c r="CW32" s="5"/>
+      <c r="CX32" s="5"/>
+      <c r="CY32" s="5"/>
+      <c r="CZ32" s="5"/>
+      <c r="DA32" s="5"/>
+      <c r="DB32" s="5"/>
+      <c r="DC32" s="5"/>
+      <c r="DD32" s="5"/>
+      <c r="DE32" s="5"/>
+      <c r="DF32" s="5"/>
+      <c r="DG32" s="5"/>
+      <c r="DH32" s="5"/>
+      <c r="DI32" s="5"/>
+      <c r="DJ32" s="5"/>
+      <c r="DK32" s="5"/>
+      <c r="DL32" s="5"/>
+      <c r="DM32" s="5"/>
+      <c r="DN32" s="5"/>
+      <c r="DO32" s="5"/>
+      <c r="DP32" s="5"/>
+      <c r="DQ32" s="5"/>
+      <c r="DR32" s="5"/>
+      <c r="DS32" s="5"/>
+    </row>
+    <row r="33" spans="1:123" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A33" s="29"/>
+      <c r="B33" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="5"/>
+      <c r="AV33" s="5"/>
+      <c r="AW33" s="5"/>
+      <c r="AX33" s="5"/>
+      <c r="AY33" s="5"/>
+      <c r="AZ33" s="5"/>
+      <c r="BA33" s="5"/>
+      <c r="BB33" s="5"/>
+      <c r="BC33" s="5"/>
+      <c r="BD33" s="5"/>
+      <c r="BE33" s="5"/>
+      <c r="BF33" s="5"/>
+      <c r="BG33" s="5"/>
+      <c r="BH33" s="5"/>
+      <c r="BI33" s="5"/>
+      <c r="BJ33" s="5"/>
+      <c r="BK33" s="5"/>
+      <c r="BL33" s="5"/>
+      <c r="BM33" s="5"/>
+      <c r="BN33" s="5"/>
+      <c r="BO33" s="5"/>
+      <c r="BP33" s="5"/>
+      <c r="BQ33" s="5"/>
+      <c r="BR33" s="5"/>
+      <c r="BS33" s="5"/>
+      <c r="BT33" s="5"/>
+      <c r="BU33" s="5"/>
+      <c r="BV33" s="5"/>
+      <c r="BW33" s="5"/>
+      <c r="BX33" s="5"/>
+      <c r="BY33" s="5"/>
+      <c r="BZ33" s="5"/>
+      <c r="CA33" s="5"/>
+      <c r="CB33" s="5"/>
+      <c r="CC33" s="5"/>
+      <c r="CD33" s="5"/>
+      <c r="CE33" s="5"/>
+      <c r="CF33" s="5"/>
+      <c r="CG33" s="5"/>
+      <c r="CH33" s="5"/>
+      <c r="CI33" s="5"/>
+      <c r="CJ33" s="5"/>
+      <c r="CK33" s="5"/>
+      <c r="CL33" s="5"/>
+      <c r="CM33" s="5"/>
+      <c r="CN33" s="5"/>
+      <c r="CO33" s="5"/>
+      <c r="CP33" s="5"/>
+      <c r="CQ33" s="5"/>
+      <c r="CR33" s="5"/>
+      <c r="CS33" s="5"/>
+      <c r="CT33" s="5"/>
+      <c r="CU33" s="5"/>
+      <c r="CV33" s="5"/>
+      <c r="CW33" s="5"/>
+      <c r="CX33" s="5"/>
+      <c r="CY33" s="5"/>
+      <c r="CZ33" s="5"/>
+      <c r="DA33" s="5"/>
+      <c r="DB33" s="5"/>
+      <c r="DC33" s="5"/>
+      <c r="DD33" s="5"/>
+      <c r="DE33" s="5"/>
+      <c r="DF33" s="5"/>
+      <c r="DG33" s="5"/>
+      <c r="DH33" s="5"/>
+      <c r="DI33" s="5"/>
+      <c r="DJ33" s="5"/>
+      <c r="DK33" s="5"/>
+      <c r="DL33" s="5"/>
+      <c r="DM33" s="5"/>
+      <c r="DN33" s="5"/>
+      <c r="DO33" s="5"/>
+      <c r="DP33" s="5"/>
+      <c r="DQ33" s="5"/>
+      <c r="DR33" s="5"/>
+      <c r="DS33" s="5"/>
+    </row>
+    <row r="34" spans="1:123" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="30"/>
+      <c r="B34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="5"/>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="5"/>
+      <c r="AV34" s="5"/>
+      <c r="AW34" s="5"/>
+      <c r="AX34" s="5"/>
+      <c r="AY34" s="5"/>
+      <c r="AZ34" s="5"/>
+      <c r="BA34" s="5"/>
+      <c r="BB34" s="5"/>
+      <c r="BC34" s="5"/>
+      <c r="BD34" s="5"/>
+      <c r="BE34" s="5"/>
+      <c r="BF34" s="5"/>
+      <c r="BG34" s="5"/>
+      <c r="BH34" s="5"/>
+      <c r="BI34" s="5"/>
+      <c r="BJ34" s="5"/>
+      <c r="BK34" s="5"/>
+      <c r="BL34" s="5"/>
+      <c r="BM34" s="5"/>
+      <c r="BN34" s="5"/>
+      <c r="BO34" s="5"/>
+      <c r="BP34" s="5"/>
+      <c r="BQ34" s="5"/>
+      <c r="BR34" s="5"/>
+      <c r="BS34" s="5"/>
+      <c r="BT34" s="5"/>
+      <c r="BU34" s="5"/>
+      <c r="BV34" s="5"/>
+      <c r="BW34" s="5"/>
+      <c r="BX34" s="5"/>
+      <c r="BY34" s="5"/>
+      <c r="BZ34" s="5"/>
+      <c r="CA34" s="5"/>
+      <c r="CB34" s="5"/>
+      <c r="CC34" s="5"/>
+      <c r="CD34" s="5"/>
+      <c r="CE34" s="5"/>
+      <c r="CF34" s="5"/>
+      <c r="CG34" s="5"/>
+      <c r="CH34" s="5"/>
+      <c r="CI34" s="5"/>
+      <c r="CJ34" s="5"/>
+      <c r="CK34" s="5"/>
+      <c r="CL34" s="5"/>
+      <c r="CM34" s="5"/>
+      <c r="CN34" s="5"/>
+      <c r="CO34" s="5"/>
+      <c r="CP34" s="5"/>
+      <c r="CQ34" s="5"/>
+      <c r="CR34" s="5"/>
+      <c r="CS34" s="5"/>
+      <c r="CT34" s="5"/>
+      <c r="CU34" s="5"/>
+      <c r="CV34" s="5"/>
+      <c r="CW34" s="5"/>
+      <c r="CX34" s="5"/>
+      <c r="CY34" s="5"/>
+      <c r="CZ34" s="5"/>
+      <c r="DA34" s="5"/>
+      <c r="DB34" s="5"/>
+      <c r="DC34" s="5"/>
+      <c r="DD34" s="5"/>
+      <c r="DE34" s="5"/>
+      <c r="DF34" s="5"/>
+      <c r="DG34" s="5"/>
+      <c r="DH34" s="5"/>
+      <c r="DI34" s="5"/>
+      <c r="DJ34" s="5"/>
+      <c r="DK34" s="5"/>
+      <c r="DL34" s="5"/>
+      <c r="DM34" s="5"/>
+      <c r="DN34" s="5"/>
+      <c r="DO34" s="5"/>
+      <c r="DP34" s="5"/>
+      <c r="DQ34" s="5"/>
+      <c r="DR34" s="5"/>
+      <c r="DS34" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B5:B12"/>
     <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F14:F20"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="F15:F21"/>
+    <mergeCell ref="A23:A34"/>
+    <mergeCell ref="A2:A22"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="B15:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
